--- a/Datos/BRECHAS_ING/Brechas_Ingresos_Region_7.xlsx
+++ b/Datos/BRECHAS_ING/Brechas_Ingresos_Region_7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\sfarias\Documents\Curso Python\.vscode\dashboard-indicadores\Datos\BRECHAS_ING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4C58B1-1FBC-4E0B-95E3-3E7584AF9D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58132DC-A3A9-4296-8A64-10995E0B553E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,10 +145,10 @@
     <t>Region de Maule</t>
   </si>
   <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Hombre</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:XFD65"/>
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>790573.875</v>
@@ -602,7 +602,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>711704.0625</v>
@@ -631,7 +631,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>682247.5625</v>
@@ -660,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>601609.25</v>
@@ -689,7 +689,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>566836.1875</v>
@@ -718,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>555708.9375</v>
@@ -747,7 +747,7 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>457177.59375</v>
@@ -776,7 +776,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
         <v>465954.15625</v>
@@ -805,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>699839.6875</v>
@@ -834,7 +834,7 @@
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <v>599668.875</v>
@@ -863,7 +863,7 @@
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>598260.125</v>
@@ -892,7 +892,7 @@
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13">
         <v>554557</v>
@@ -921,7 +921,7 @@
         <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H14">
         <v>594734.125</v>
@@ -950,7 +950,7 @@
         <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15">
         <v>592429.25</v>
@@ -979,7 +979,7 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H16">
         <v>493867.75</v>
@@ -1008,7 +1008,7 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17">
         <v>453863.46875</v>
@@ -1037,7 +1037,7 @@
         <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H18">
         <v>626323.8125</v>
@@ -1066,7 +1066,7 @@
         <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19">
         <v>488905.59375</v>
@@ -1095,7 +1095,7 @@
         <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H20">
         <v>659500.625</v>
@@ -1124,7 +1124,7 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H21">
         <v>535463.0625</v>
@@ -1153,7 +1153,7 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H22">
         <v>570825.6875</v>
@@ -1182,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23">
         <v>581892.375</v>
@@ -1211,7 +1211,7 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H24">
         <v>533282.875</v>
@@ -1240,7 +1240,7 @@
         <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>538499.125</v>
@@ -1269,7 +1269,7 @@
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>654265.375</v>
@@ -1298,7 +1298,7 @@
         <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>682833.4375</v>
@@ -1327,7 +1327,7 @@
         <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H28">
         <v>657785.75</v>
@@ -1356,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H29">
         <v>596743.1875</v>
@@ -1385,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H30">
         <v>556531.9375</v>
@@ -1414,7 +1414,7 @@
         <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H31">
         <v>556095.1875</v>
@@ -1443,7 +1443,7 @@
         <v>26</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H32">
         <v>691488.0625</v>
@@ -1472,7 +1472,7 @@
         <v>26</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33">
         <v>621688.6875</v>
@@ -1501,7 +1501,7 @@
         <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H34">
         <v>537129.8125</v>
@@ -1530,7 +1530,7 @@
         <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35">
         <v>484006.4375</v>
@@ -1559,7 +1559,7 @@
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H36">
         <v>474270.1875</v>
@@ -1588,7 +1588,7 @@
         <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H37">
         <v>451143.125</v>
@@ -1617,7 +1617,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H38">
         <v>567010.1875</v>
@@ -1646,7 +1646,7 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39">
         <v>521845.59375</v>
@@ -1675,7 +1675,7 @@
         <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H40">
         <v>534183.25</v>
@@ -1704,7 +1704,7 @@
         <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41">
         <v>487151.15625</v>
@@ -1733,7 +1733,7 @@
         <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H42">
         <v>519021.0625</v>
@@ -1762,7 +1762,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H43">
         <v>470515.09375</v>
@@ -1791,7 +1791,7 @@
         <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H44">
         <v>568968.75</v>
@@ -1820,7 +1820,7 @@
         <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H45">
         <v>566872.625</v>
@@ -1849,7 +1849,7 @@
         <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H46">
         <v>658251.25</v>
@@ -1878,7 +1878,7 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H47">
         <v>588965.75</v>
@@ -1907,7 +1907,7 @@
         <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H48">
         <v>636337.1875</v>
@@ -1936,7 +1936,7 @@
         <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H49">
         <v>463519.1875</v>
@@ -1965,7 +1965,7 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H50">
         <v>489751.5625</v>
@@ -1994,7 +1994,7 @@
         <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H51">
         <v>436388.96875</v>
@@ -2023,7 +2023,7 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H52">
         <v>581092.625</v>
@@ -2052,7 +2052,7 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H53">
         <v>566956.4375</v>
@@ -2081,7 +2081,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H54">
         <v>487354.375</v>
@@ -2110,7 +2110,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H55">
         <v>472563.75</v>
@@ -2139,7 +2139,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H56">
         <v>598083.125</v>
@@ -2168,7 +2168,7 @@
         <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H57">
         <v>545918.875</v>
@@ -2197,7 +2197,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H58">
         <v>565872.75</v>
@@ -2226,7 +2226,7 @@
         <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H59">
         <v>527041.3125</v>
@@ -2255,7 +2255,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H60">
         <v>487304.6875</v>
@@ -2284,7 +2284,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H61">
         <v>445092.3125</v>
@@ -2304,7 +2304,7 @@
         <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H62">
         <v>642366.125</v>
@@ -2324,7 +2324,7 @@
         <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H63">
         <v>587348.875</v>
@@ -2344,7 +2344,7 @@
         <v>10</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H64">
         <v>864177.4375</v>
@@ -2364,7 +2364,7 @@
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H65">
         <v>740526.3125</v>
